--- a/Employee_Reports35/Jeffrey Manarpaac Urolaza Q0503.xlsx
+++ b/Employee_Reports35/Jeffrey Manarpaac Urolaza Q0503.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1748,11 +1748,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1797,11 +1797,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1895,11 +1895,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2042,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2177,11 +2177,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2226,11 +2226,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2246,41 +2246,28 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>19-Oct-2025</t>
+          <t>26-Sep-2025</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>19-Oct-2026</t>
+          <t>26-Sep-2026</t>
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2296,17 +2283,17 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>IMS</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-028</t>
+          <t>LSME-IMS-SOP-021</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -2316,20 +2303,20 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>19-Oct-2025</t>
+          <t>18-Mar-2025</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>19-Oct-2026</t>
+          <t>18-Mar-2026</t>
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2345,7 +2332,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
+          <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2355,7 +2342,7 @@
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-035</t>
+          <t>LSME-CRG-SOP-030</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2365,20 +2352,20 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>03-May-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>03-May-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
@@ -2394,28 +2381,40 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>26-Sep-2025</t>
+          <t>18-Mar-2025</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>26-Sep-2026</t>
+          <t>18-Mar-2026</t>
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
@@ -2431,17 +2430,17 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-021</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2451,20 +2450,20 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>18-Mar-2025</t>
+          <t>04-Apr-2025</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>18-Mar-2026</t>
+          <t>04-Apr-2026</t>
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
@@ -2480,40 +2479,28 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-030</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr"/>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2025</t>
+          <t>10-Jul-2025</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2026</t>
+          <t>10-Jul-2027</t>
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>153</v>
+        <v>613</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
@@ -2522,325 +2509,6 @@
         </is>
       </c>
       <c r="K43" s="3" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>18-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>18-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K44" s="3" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>04-Apr-2025</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>04-Apr-2026</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>152</v>
-      </c>
-      <c r="I45" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>Replacement Procedure Of Y Axis Frequency Inverter -Stacker Crane (SOPs)</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>03-May-2025</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>03-May-2026</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>03-May-2025</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>03-May-2026</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>06-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>06-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>307</v>
-      </c>
-      <c r="I48" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-018</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="inlineStr">
-        <is>
-          <t>06-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>06-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>307</v>
-      </c>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K49" s="3" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>614</v>
-      </c>
-      <c r="I50" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jeffrey Manarpaac Urolaza Q0503.xlsx
+++ b/Employee_Reports35/Jeffrey Manarpaac Urolaza Q0503.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1748,11 +1748,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1797,11 +1797,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1895,11 +1895,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2042,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2177,11 +2177,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2226,11 +2226,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2263,11 +2263,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2312,11 +2312,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2361,11 +2361,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
@@ -2410,11 +2410,11 @@
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
@@ -2496,11 +2496,11 @@
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
